--- a/data/data_monitoreo_cruz_pampa_yapatera.xlsx
+++ b/data/data_monitoreo_cruz_pampa_yapatera.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARRUNATEGUI ESPINOZA JOVANNY</t>
+          <t>CARRION LAZARO MICHAEL LUIS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CARRION LAZARO MICHAEL LUIS</t>
+          <t>ARRUNATEGUI ESPINOZA JOVANNY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -492,47 +492,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NAVARRO JUAREZ LIDIA</t>
+          <t>ESPINOZA VALDIVIEZO JUNIOR RICARDO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESPINOZA VALDIVIEZO JUNIOR RICARDO</t>
+          <t>PULACHE LAZO VILMA YOHANA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PULACHE LAZO VILMA YOHANA</t>
+          <t>LILIAN ROXANA VEGA GARCÍA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LILIAN ROXANA VEGA GARCÍA</t>
+          <t>NAVARRO JUAREZ LIDIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruz_pampa_yapatera.xlsx
+++ b/data/data_monitoreo_cruz_pampa_yapatera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,51 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAZ ANASTACIO JUANITA ROSA</t>
+          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
+          <t>ARRUNATEGUI ESPINOZA JOVANNY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CARRION LAZARO MICHAEL LUIS</t>
+          <t>ALZAMORA CHERRES SIRLEY YASMIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARRUNATEGUI ESPINOZA JOVANNY</t>
+          <t>CARRION LAZARO MICHAEL LUIS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALZAMORA CHERRES SIRLEY YASMIN</t>
+          <t>PAZ ANASTACIO JUANITA ROSA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -512,27 +512,47 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LILIAN ROXANA VEGA GARCÍA</t>
+          <t>NAVARRO JUAREZ LIDIA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NAVARRO JUAREZ LIDIA</t>
+          <t>LILIAN ROXANA VEGA GARCÍA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DOMINGUEZ CUEVA MERLING DEL JESUS YOLINDA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NIMA CRUZ ANA GRACIELA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruz_pampa_yapatera.xlsx
+++ b/data/data_monitoreo_cruz_pampa_yapatera.xlsx
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
+          <t>PAZ ANASTACIO JUANITA ROSA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -462,37 +462,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALZAMORA CHERRES SIRLEY YASMIN</t>
+          <t>CARRION LAZARO MICHAEL LUIS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CARRION LAZARO MICHAEL LUIS</t>
+          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PAZ ANASTACIO JUANITA ROSA</t>
+          <t>ALZAMORA CHERRES SIRLEY YASMIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -502,47 +502,47 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PULACHE LAZO VILMA YOHANA</t>
+          <t>NAVARRO JUAREZ LIDIA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAVARRO JUAREZ LIDIA</t>
+          <t>PULACHE LAZO VILMA YOHANA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LILIAN ROXANA VEGA GARCÍA</t>
+          <t>DOMINGUEZ CUEVA MERLING DEL JESUS YOLINDA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DOMINGUEZ CUEVA MERLING DEL JESUS YOLINDA</t>
+          <t>LILIAN ROXANA VEGA GARCÍA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">

--- a/data/data_monitoreo_cruz_pampa_yapatera.xlsx
+++ b/data/data_monitoreo_cruz_pampa_yapatera.xlsx
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAZ ANASTACIO JUANITA ROSA</t>
+          <t>CARRION LAZARO MICHAEL LUIS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -462,17 +462,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CARRION LAZARO MICHAEL LUIS</t>
+          <t>PAZ ANASTACIO JUANITA ROSA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -502,27 +502,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NAVARRO JUAREZ LIDIA</t>
+          <t>PULACHE LAZO VILMA YOHANA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PULACHE LAZO VILMA YOHANA</t>
+          <t>NAVARRO JUAREZ LIDIA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">

--- a/data/data_monitoreo_cruz_pampa_yapatera.xlsx
+++ b/data/data_monitoreo_cruz_pampa_yapatera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -462,47 +462,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PAZ ANASTACIO JUANITA ROSA</t>
+          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
+          <t>PAZ ANASTACIO JUANITA ROSA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALZAMORA CHERRES SIRLEY YASMIN</t>
+          <t>ESPINOZA VALDIVIEZO JUNIOR RICARDO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESPINOZA VALDIVIEZO JUNIOR RICARDO</t>
+          <t>ALZAMORA CHERRES SIRLEY YASMIN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -512,27 +512,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAVARRO JUAREZ LIDIA</t>
+          <t>DOMINGUEZ CUEVA MERLING DEL JESUS YOLINDA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DOMINGUEZ CUEVA MERLING DEL JESUS YOLINDA</t>
+          <t>NAVARRO JUAREZ LIDIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -542,17 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NIMA CRUZ ANA GRACIELA</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruz_pampa_yapatera.xlsx
+++ b/data/data_monitoreo_cruz_pampa_yapatera.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
+          <t>PAZ ANASTACIO JUANITA ROSA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PAZ ANASTACIO JUANITA ROSA</t>
+          <t>NIMA CARMEN KAREN DEL MILAGRO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NAVARRO JUAREZ LIDIA</t>
+          <t>LILIAN ROXANA VEGA GARCÍA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LILIAN ROXANA VEGA GARCÍA</t>
+          <t>NAVARRO JUAREZ LIDIA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
